--- a/uploads/NIST.xlsx
+++ b/uploads/NIST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\AI Consultant Pipeline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Stuff\ControlsEngine\ControlsEngine\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70987B8A-2BBC-43E0-A691-07251A3CB42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BBAD12-F863-4C71-9EEF-BF187A139EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="2210" windowWidth="19200" windowHeight="11710" xr2:uid="{59A8A719-C323-4B4F-B141-1065C3AB4FE4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{59A8A719-C323-4B4F-B141-1065C3AB4FE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
-    <t>Subcategory</t>
-  </si>
-  <si>
-    <t>Function</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -4992,6 +4983,15 @@
       </rPr>
       <t>: Dropped (moved to ID.IM-03)</t>
     </r>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Sub-Domain</t>
+  </si>
+  <si>
+    <t>Control</t>
   </si>
 </sst>
 </file>
@@ -5194,16 +5194,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5211,12 +5202,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5228,13 +5213,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5243,17 +5222,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5571,1400 +5571,1430 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEA5C29-45C1-4F57-AAA6-8442CA90C5F0}">
   <dimension ref="A1:C186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C186"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="75.36328125" customWidth="1"/>
+    <col min="2" max="2" width="63.26953125" customWidth="1"/>
+    <col min="3" max="3" width="75.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="232" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="232" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="20"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="348" x14ac:dyDescent="0.35">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+    <row r="6" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="20"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="9" t="s">
+    <row r="7" spans="1:3" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="20"/>
+      <c r="B7" s="23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="348" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="9" t="s">
+    <row r="8" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="20"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
-      <c r="B7" s="10" t="s">
+    <row r="9" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="20"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="11" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="20"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11" t="s">
+    <row r="11" spans="1:3" ht="319" x14ac:dyDescent="0.35">
+      <c r="A11" s="20"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="9" t="s">
+    <row r="12" spans="1:3" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="20"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="9" t="s">
+    <row r="13" spans="1:3" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="20"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="319" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11" t="s">
+    <row r="14" spans="1:3" ht="377" x14ac:dyDescent="0.35">
+      <c r="A14" s="20"/>
+      <c r="B14" s="23" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9" t="s">
+      <c r="C14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11" t="s">
+    <row r="15" spans="1:3" ht="406" x14ac:dyDescent="0.35">
+      <c r="A15" s="20"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="377" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
-      <c r="B14" s="10" t="s">
+    <row r="16" spans="1:3" ht="362.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="20"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="9" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="20"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="406" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="9" t="s">
+    <row r="18" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="20"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="362.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="9" t="s">
+    <row r="19" spans="1:3" ht="290" x14ac:dyDescent="0.35">
+      <c r="A19" s="20"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="6"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="9" t="s">
+    <row r="20" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="20"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="6"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="12" t="s">
+    <row r="21" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="20"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="290" x14ac:dyDescent="0.35">
-      <c r="A19" s="6"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="9" t="s">
+    <row r="22" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="20"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="6"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="9" t="s">
+    <row r="23" spans="1:3" ht="333.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="20"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="13" t="s">
+    <row r="24" spans="1:3" ht="348" x14ac:dyDescent="0.35">
+      <c r="A24" s="20"/>
+      <c r="B24" s="16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="6"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="13" t="s">
+      <c r="C24" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="6"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="13" t="s">
+    <row r="25" spans="1:3" ht="377" x14ac:dyDescent="0.35">
+      <c r="A25" s="20"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="348" x14ac:dyDescent="0.35">
-      <c r="A24" s="6"/>
-      <c r="B24" s="14" t="s">
+    <row r="26" spans="1:3" ht="261" x14ac:dyDescent="0.35">
+      <c r="A26" s="20"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="13" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="20"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="377" x14ac:dyDescent="0.35">
-      <c r="A25" s="6"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15" t="s">
+    <row r="28" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="20"/>
+      <c r="B28" s="16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="261" x14ac:dyDescent="0.35">
-      <c r="A26" s="6"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="13" t="s">
+      <c r="C28" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="6"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="13" t="s">
+    <row r="29" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="20"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="6"/>
-      <c r="B28" s="14" t="s">
+    <row r="30" spans="1:3" ht="232" x14ac:dyDescent="0.35">
+      <c r="A30" s="20"/>
+      <c r="B30" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C30" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="6"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="13" t="s">
+    <row r="31" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="20"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="232" x14ac:dyDescent="0.35">
-      <c r="A30" s="6"/>
-      <c r="B30" s="14" t="s">
+    <row r="32" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="20"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="13" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="174" x14ac:dyDescent="0.35">
+      <c r="A33" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="6"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="13" t="s">
+      <c r="B33" s="16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="6"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="13" t="s">
+      <c r="C33" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="174" x14ac:dyDescent="0.35">
-      <c r="A33" s="16" t="s">
+    <row r="34" spans="1:3" ht="203" x14ac:dyDescent="0.35">
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="14" t="s">
+    </row>
+    <row r="35" spans="1:3" ht="362.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="14"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="13" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="14"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="203" x14ac:dyDescent="0.35">
-      <c r="A34" s="16"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="13" t="s">
+    <row r="37" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="14"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="362.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="16"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="13" t="s">
+    <row r="38" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="14"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="16"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="13" t="s">
+    <row r="39" spans="1:3" ht="203" x14ac:dyDescent="0.35">
+      <c r="A39" s="14"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="16"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="13" t="s">
+    <row r="40" spans="1:3" ht="290" x14ac:dyDescent="0.35">
+      <c r="A40" s="14"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="16"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="13" t="s">
+    <row r="41" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="14"/>
+      <c r="B41" s="16" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="203" x14ac:dyDescent="0.35">
-      <c r="A39" s="16"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="13" t="s">
+      <c r="C41" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="290" x14ac:dyDescent="0.35">
-      <c r="A40" s="16"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="13" t="s">
+    <row r="42" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="14"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="16"/>
-      <c r="B41" s="14" t="s">
+    <row r="43" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="14"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="13" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="14"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="16"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="13" t="s">
+    <row r="45" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="14"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="16"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="13" t="s">
+    <row r="46" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A46" s="14"/>
+      <c r="B46" s="17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="16"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="17" t="s">
+      <c r="C46" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="16"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="13" t="s">
+    <row r="47" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A47" s="14"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A46" s="16"/>
-      <c r="B46" s="18" t="s">
+    <row r="48" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A48" s="14"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="13" t="s">
+    </row>
+    <row r="49" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A49" s="14"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A47" s="16"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="13" t="s">
+    <row r="50" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="14"/>
+      <c r="B50" s="16" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A48" s="16"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="13" t="s">
+      <c r="C50" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A49" s="16"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="13" t="s">
+    <row r="51" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="14"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="16"/>
-      <c r="B50" s="14" t="s">
+    <row r="52" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="14"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="13" t="s">
+    </row>
+    <row r="53" spans="1:3" ht="203" x14ac:dyDescent="0.35">
+      <c r="A53" s="14"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="16"/>
-      <c r="B51" s="14"/>
-      <c r="C51" s="13" t="s">
+    <row r="54" spans="1:3" ht="232" x14ac:dyDescent="0.35">
+      <c r="A54" s="14"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="16"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="13" t="s">
+    <row r="55" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="14"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="203" x14ac:dyDescent="0.35">
-      <c r="A53" s="16"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="13" t="s">
+    <row r="56" spans="1:3" ht="232" x14ac:dyDescent="0.35">
+      <c r="A56" s="14"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="232" x14ac:dyDescent="0.35">
-      <c r="A54" s="16"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="13" t="s">
+    <row r="57" spans="1:3" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="14"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="16"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="13" t="s">
+    <row r="58" spans="1:3" ht="261" x14ac:dyDescent="0.35">
+      <c r="A58" s="14"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="232" x14ac:dyDescent="0.35">
-      <c r="A56" s="16"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="13" t="s">
+    <row r="59" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A59" s="14"/>
+      <c r="B59" s="16" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="16"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="13" t="s">
+      <c r="C59" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="261" x14ac:dyDescent="0.35">
-      <c r="A58" s="16"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="13" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="14"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A59" s="16"/>
-      <c r="B59" s="14" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="14"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="13" t="s">
+    </row>
+    <row r="62" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="14"/>
+      <c r="B62" s="16" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="16"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="17" t="s">
+      <c r="C62" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="16"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="17" t="s">
+    <row r="63" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A63" s="14"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="16"/>
-      <c r="B62" s="14" t="s">
+    <row r="64" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="14"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C62" s="13" t="s">
+    </row>
+    <row r="65" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="14"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A63" s="16"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="13" t="s">
+    <row r="66" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A66" s="14"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="16"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="13" t="s">
+    <row r="67" spans="1:3" ht="145" x14ac:dyDescent="0.35">
+      <c r="A67" s="14"/>
+      <c r="B67" s="16" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="16"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="13" t="s">
+      <c r="C67" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A66" s="16"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="13" t="s">
+    <row r="68" spans="1:3" ht="377" x14ac:dyDescent="0.35">
+      <c r="A68" s="14"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="145" x14ac:dyDescent="0.35">
-      <c r="A67" s="16"/>
-      <c r="B67" s="14" t="s">
+    <row r="69" spans="1:3" ht="391.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="14"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C67" s="13" t="s">
+    </row>
+    <row r="70" spans="1:3" ht="232" x14ac:dyDescent="0.35">
+      <c r="A70" s="14"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="377" x14ac:dyDescent="0.35">
-      <c r="A68" s="16"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="13" t="s">
+    <row r="71" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="14" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="391.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="16"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="13" t="s">
+      <c r="B71" s="16" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="232" x14ac:dyDescent="0.35">
-      <c r="A70" s="16"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="13" t="s">
+      <c r="C71" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="16" t="s">
+    <row r="72" spans="1:3" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="14"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B71" s="14" t="s">
+    </row>
+    <row r="73" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="14"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C71" s="13" t="s">
+    </row>
+    <row r="74" spans="1:3" ht="145" x14ac:dyDescent="0.35">
+      <c r="A74" s="14"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="16"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="13" t="s">
+    <row r="75" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="14"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="16"/>
-      <c r="B73" s="14"/>
-      <c r="C73" s="13" t="s">
+    <row r="76" spans="1:3" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="14"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="145" x14ac:dyDescent="0.35">
-      <c r="A74" s="16"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="13" t="s">
+    <row r="77" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="14"/>
+      <c r="B77" s="16" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="16"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="13" t="s">
+      <c r="C77" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="16"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="13" t="s">
+    <row r="78" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A78" s="14"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="16"/>
-      <c r="B77" s="14" t="s">
+    <row r="79" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="A79" s="14"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C77" s="19" t="s">
+    </row>
+    <row r="80" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A80" s="14"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A78" s="16"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="19" t="s">
+    <row r="81" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A81" s="14"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A79" s="16"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="19" t="s">
+    <row r="82" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A82" s="14"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A80" s="16"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="19" t="s">
+    <row r="83" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A83" s="14"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A81" s="16"/>
-      <c r="B81" s="14"/>
-      <c r="C81" s="19" t="s">
+    <row r="84" spans="1:3" ht="362.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="14"/>
+      <c r="B84" s="16" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A82" s="16"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="19" t="s">
+      <c r="C84" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A83" s="16"/>
-      <c r="B83" s="14"/>
-      <c r="C83" s="19" t="s">
+    <row r="85" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="14"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="362.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="16"/>
-      <c r="B84" s="14" t="s">
+    <row r="86" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="14"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C84" s="19" t="s">
+    </row>
+    <row r="87" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A87" s="14"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="16"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="19" t="s">
+    <row r="88" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A88" s="14"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="16"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="19" t="s">
+    <row r="89" spans="1:3" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="14"/>
+      <c r="B89" s="16" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A87" s="16"/>
-      <c r="B87" s="14"/>
-      <c r="C87" s="19" t="s">
+      <c r="C89" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A88" s="16"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="19" t="s">
+    <row r="90" spans="1:3" ht="232" x14ac:dyDescent="0.35">
+      <c r="A90" s="14"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="16"/>
-      <c r="B89" s="14" t="s">
+    <row r="91" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A91" s="14"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C89" s="19" t="s">
+    </row>
+    <row r="92" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A92" s="14"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="232" x14ac:dyDescent="0.35">
-      <c r="A90" s="16"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="19" t="s">
+    <row r="93" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="A93" s="14"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A91" s="16"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="19" t="s">
+    <row r="94" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="A94" s="14"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A92" s="16"/>
-      <c r="B92" s="14"/>
-      <c r="C92" s="19" t="s">
+    <row r="95" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A95" s="14"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A93" s="16"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="19" t="s">
+    <row r="96" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="A96" s="14"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A94" s="16"/>
-      <c r="B94" s="14"/>
-      <c r="C94" s="19" t="s">
+    <row r="97" spans="1:3" ht="174" x14ac:dyDescent="0.35">
+      <c r="A97" s="14"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A95" s="16"/>
-      <c r="B95" s="14"/>
-      <c r="C95" s="19" t="s">
+    <row r="98" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="14"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A96" s="16"/>
-      <c r="B96" s="14"/>
-      <c r="C96" s="19" t="s">
+    <row r="99" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="14"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="174" x14ac:dyDescent="0.35">
-      <c r="A97" s="16"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="19" t="s">
+    <row r="100" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="14"/>
+      <c r="B100" s="16" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A98" s="16"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="19" t="s">
+      <c r="C100" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A99" s="16"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="19" t="s">
+    <row r="101" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="14"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="16"/>
-      <c r="B100" s="14" t="s">
+    <row r="102" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A102" s="14"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C100" s="19" t="s">
+    </row>
+    <row r="103" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A103" s="14"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="16"/>
-      <c r="B101" s="14"/>
-      <c r="C101" s="19" t="s">
+    <row r="104" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="14"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A102" s="16"/>
-      <c r="B102" s="14"/>
-      <c r="C102" s="19" t="s">
+    <row r="105" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A105" s="14"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="16"/>
-      <c r="B103" s="14"/>
-      <c r="C103" s="19" t="s">
+    <row r="106" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="14"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="16"/>
-      <c r="B104" s="14"/>
-      <c r="C104" s="19" t="s">
+    <row r="107" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="14"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A105" s="16"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="19" t="s">
+    <row r="108" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A108" s="14"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="16"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="19" t="s">
+    <row r="109" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A109" s="14"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="16"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="19" t="s">
+    <row r="110" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A110" s="14"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A108" s="16"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="19" t="s">
+    <row r="111" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A111" s="14"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A109" s="16"/>
-      <c r="B109" s="14"/>
-      <c r="C109" s="19" t="s">
+    <row r="112" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A112" s="14"/>
+      <c r="B112" s="17" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A110" s="16"/>
-      <c r="B110" s="14"/>
-      <c r="C110" s="19" t="s">
+      <c r="C112" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A111" s="16"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="19" t="s">
+    <row r="113" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A113" s="14"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A112" s="16"/>
-      <c r="B112" s="18" t="s">
+    <row r="114" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A114" s="14"/>
+      <c r="B114" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C112" s="19" t="s">
+      <c r="C114" s="12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A113" s="16"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="19" t="s">
+    <row r="115" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="14"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A114" s="16"/>
-      <c r="B114" s="14" t="s">
+    <row r="116" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A116" s="14"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C114" s="19" t="s">
+    </row>
+    <row r="117" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A117" s="14"/>
+      <c r="B117" s="16"/>
+      <c r="C117" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A115" s="16"/>
-      <c r="B115" s="14"/>
-      <c r="C115" s="19" t="s">
+    <row r="118" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A118" s="14"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A116" s="16"/>
-      <c r="B116" s="14"/>
-      <c r="C116" s="19" t="s">
+    <row r="119" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A119" s="14"/>
+      <c r="B119" s="16" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="16"/>
-      <c r="B117" s="14"/>
-      <c r="C117" s="19" t="s">
+      <c r="C119" s="12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A118" s="16"/>
-      <c r="B118" s="14"/>
-      <c r="C118" s="19" t="s">
+    <row r="120" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A120" s="14"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="16"/>
-      <c r="B119" s="14" t="s">
+    <row r="121" spans="1:3" ht="203" x14ac:dyDescent="0.35">
+      <c r="A121" s="14"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C119" s="19" t="s">
+    </row>
+    <row r="122" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A122" s="14"/>
+      <c r="B122" s="16"/>
+      <c r="C122" s="12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A120" s="16"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="19" t="s">
+    <row r="123" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A123" s="14"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="203" x14ac:dyDescent="0.35">
-      <c r="A121" s="16"/>
-      <c r="B121" s="14"/>
-      <c r="C121" s="19" t="s">
+    <row r="124" spans="1:3" ht="290" x14ac:dyDescent="0.35">
+      <c r="A124" s="14"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="16"/>
-      <c r="B122" s="14"/>
-      <c r="C122" s="19" t="s">
+    <row r="125" spans="1:3" ht="290" x14ac:dyDescent="0.35">
+      <c r="A125" s="14"/>
+      <c r="B125" s="16" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A123" s="16"/>
-      <c r="B123" s="14"/>
-      <c r="C123" s="19" t="s">
+      <c r="C125" s="12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="290" x14ac:dyDescent="0.35">
-      <c r="A124" s="16"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="19" t="s">
+    <row r="126" spans="1:3" ht="203" x14ac:dyDescent="0.35">
+      <c r="A126" s="14"/>
+      <c r="B126" s="16"/>
+      <c r="C126" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="290" x14ac:dyDescent="0.35">
-      <c r="A125" s="16"/>
-      <c r="B125" s="14" t="s">
+    <row r="127" spans="1:3" ht="232" x14ac:dyDescent="0.35">
+      <c r="A127" s="14"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C125" s="19" t="s">
+    </row>
+    <row r="128" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A128" s="14"/>
+      <c r="B128" s="16"/>
+      <c r="C128" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="203" x14ac:dyDescent="0.35">
-      <c r="A126" s="16"/>
-      <c r="B126" s="14"/>
-      <c r="C126" s="19" t="s">
+    <row r="129" spans="1:3" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A129" s="14" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" ht="232" x14ac:dyDescent="0.35">
-      <c r="A127" s="16"/>
-      <c r="B127" s="14"/>
-      <c r="C127" s="19" t="s">
+      <c r="B129" s="16" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="16"/>
-      <c r="B128" s="14"/>
-      <c r="C128" s="19" t="s">
+      <c r="C129" s="12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A129" s="16" t="s">
+    <row r="130" spans="1:3" ht="145" x14ac:dyDescent="0.35">
+      <c r="A130" s="14"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="B129" s="14" t="s">
+    </row>
+    <row r="131" spans="1:3" ht="261" x14ac:dyDescent="0.35">
+      <c r="A131" s="14"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="C129" s="19" t="s">
+    </row>
+    <row r="132" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="A132" s="14"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="12" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="145" x14ac:dyDescent="0.35">
-      <c r="A130" s="16"/>
-      <c r="B130" s="14"/>
-      <c r="C130" s="19" t="s">
+    <row r="133" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="A133" s="14"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="261" x14ac:dyDescent="0.35">
-      <c r="A131" s="16"/>
-      <c r="B131" s="14"/>
-      <c r="C131" s="19" t="s">
+    <row r="134" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A134" s="14"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A132" s="16"/>
-      <c r="B132" s="14"/>
-      <c r="C132" s="19" t="s">
+    <row r="135" spans="1:3" ht="174" x14ac:dyDescent="0.35">
+      <c r="A135" s="14"/>
+      <c r="B135" s="16"/>
+      <c r="C135" s="12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A133" s="16"/>
-      <c r="B133" s="14"/>
-      <c r="C133" s="19" t="s">
+    <row r="136" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A136" s="14"/>
+      <c r="B136" s="16"/>
+      <c r="C136" s="12" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A134" s="16"/>
-      <c r="B134" s="14"/>
-      <c r="C134" s="19" t="s">
+    <row r="137" spans="1:3" ht="377" x14ac:dyDescent="0.35">
+      <c r="A137" s="14"/>
+      <c r="B137" s="16"/>
+      <c r="C137" s="12" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="174" x14ac:dyDescent="0.35">
-      <c r="A135" s="16"/>
-      <c r="B135" s="14"/>
-      <c r="C135" s="19" t="s">
+    <row r="138" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A138" s="14"/>
+      <c r="B138" s="16" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A136" s="16"/>
-      <c r="B136" s="14"/>
-      <c r="C136" s="19" t="s">
+      <c r="C138" s="12" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="377" x14ac:dyDescent="0.35">
-      <c r="A137" s="16"/>
-      <c r="B137" s="14"/>
-      <c r="C137" s="19" t="s">
+    <row r="139" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A139" s="14"/>
+      <c r="B139" s="16"/>
+      <c r="C139" s="12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A138" s="16"/>
-      <c r="B138" s="14" t="s">
+    <row r="140" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="A140" s="14"/>
+      <c r="B140" s="16"/>
+      <c r="C140" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C138" s="19" t="s">
+    </row>
+    <row r="141" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A141" s="14"/>
+      <c r="B141" s="16"/>
+      <c r="C141" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A139" s="16"/>
-      <c r="B139" s="14"/>
-      <c r="C139" s="19" t="s">
+    <row r="142" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A142" s="14"/>
+      <c r="B142" s="16"/>
+      <c r="C142" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A140" s="16"/>
-      <c r="B140" s="14"/>
-      <c r="C140" s="19" t="s">
+    <row r="143" spans="1:3" ht="203" x14ac:dyDescent="0.35">
+      <c r="A143" s="14"/>
+      <c r="B143" s="16"/>
+      <c r="C143" s="12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A141" s="16"/>
-      <c r="B141" s="14"/>
-      <c r="C141" s="19" t="s">
+    <row r="144" spans="1:3" ht="203" x14ac:dyDescent="0.35">
+      <c r="A144" s="14"/>
+      <c r="B144" s="16"/>
+      <c r="C144" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A142" s="16"/>
-      <c r="B142" s="14"/>
-      <c r="C142" s="19" t="s">
+    <row r="145" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A145" s="14"/>
+      <c r="B145" s="16"/>
+      <c r="C145" s="12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="203" x14ac:dyDescent="0.35">
-      <c r="A143" s="16"/>
-      <c r="B143" s="14"/>
-      <c r="C143" s="19" t="s">
+    <row r="146" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A146" s="14"/>
+      <c r="B146" s="16" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" ht="203" x14ac:dyDescent="0.35">
-      <c r="A144" s="16"/>
-      <c r="B144" s="14"/>
-      <c r="C144" s="19" t="s">
+      <c r="C146" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A145" s="16"/>
-      <c r="B145" s="14"/>
-      <c r="C145" s="19" t="s">
+    <row r="147" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A147" s="14"/>
+      <c r="B147" s="16"/>
+      <c r="C147" s="12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A146" s="16"/>
-      <c r="B146" s="14" t="s">
+    <row r="148" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A148" s="14"/>
+      <c r="B148" s="16"/>
+      <c r="C148" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C146" s="19" t="s">
+    </row>
+    <row r="149" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A149" s="14"/>
+      <c r="B149" s="16"/>
+      <c r="C149" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A147" s="16"/>
-      <c r="B147" s="14"/>
-      <c r="C147" s="19" t="s">
+    <row r="150" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A150" s="14"/>
+      <c r="B150" s="16"/>
+      <c r="C150" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A148" s="16"/>
-      <c r="B148" s="14"/>
-      <c r="C148" s="19" t="s">
+    <row r="151" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A151" s="14" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A149" s="16"/>
-      <c r="B149" s="14"/>
-      <c r="C149" s="19" t="s">
+      <c r="B151" s="11" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A150" s="16"/>
-      <c r="B150" s="14"/>
-      <c r="C150" s="19" t="s">
+      <c r="C151" s="12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A151" s="16" t="s">
+    <row r="152" spans="1:3" ht="290" x14ac:dyDescent="0.35">
+      <c r="A152" s="14"/>
+      <c r="B152" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="B151" s="20" t="s">
+      <c r="C152" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C151" s="19" t="s">
+    </row>
+    <row r="153" spans="1:3" ht="174" x14ac:dyDescent="0.35">
+      <c r="A153" s="14"/>
+      <c r="B153" s="16"/>
+      <c r="C153" s="12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="290" x14ac:dyDescent="0.35">
-      <c r="A152" s="16"/>
-      <c r="B152" s="14" t="s">
+    <row r="154" spans="1:3" ht="174" x14ac:dyDescent="0.35">
+      <c r="A154" s="14"/>
+      <c r="B154" s="16"/>
+      <c r="C154" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C152" s="19" t="s">
+    </row>
+    <row r="155" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A155" s="14"/>
+      <c r="B155" s="16"/>
+      <c r="C155" s="12" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="174" x14ac:dyDescent="0.35">
-      <c r="A153" s="16"/>
-      <c r="B153" s="14"/>
-      <c r="C153" s="19" t="s">
+    <row r="156" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A156" s="14"/>
+      <c r="B156" s="16"/>
+      <c r="C156" s="12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="174" x14ac:dyDescent="0.35">
-      <c r="A154" s="16"/>
-      <c r="B154" s="14"/>
-      <c r="C154" s="19" t="s">
+    <row r="157" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A157" s="14"/>
+      <c r="B157" s="16" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A155" s="16"/>
-      <c r="B155" s="14"/>
-      <c r="C155" s="19" t="s">
+      <c r="C157" s="12" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A156" s="16"/>
-      <c r="B156" s="14"/>
-      <c r="C156" s="19" t="s">
+    <row r="158" spans="1:3" ht="145" x14ac:dyDescent="0.35">
+      <c r="A158" s="14"/>
+      <c r="B158" s="16"/>
+      <c r="C158" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A157" s="16"/>
-      <c r="B157" s="14" t="s">
+    <row r="159" spans="1:3" ht="261" x14ac:dyDescent="0.35">
+      <c r="A159" s="14"/>
+      <c r="B159" s="16"/>
+      <c r="C159" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="C157" s="19" t="s">
+    </row>
+    <row r="160" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A160" s="14"/>
+      <c r="B160" s="16"/>
+      <c r="C160" s="12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="145" x14ac:dyDescent="0.35">
-      <c r="A158" s="16"/>
-      <c r="B158" s="14"/>
-      <c r="C158" s="19" t="s">
+    <row r="161" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A161" s="14"/>
+      <c r="B161" s="16"/>
+      <c r="C161" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="261" x14ac:dyDescent="0.35">
-      <c r="A159" s="16"/>
-      <c r="B159" s="14"/>
-      <c r="C159" s="19" t="s">
+    <row r="162" spans="1:3" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A162" s="14"/>
+      <c r="B162" s="16"/>
+      <c r="C162" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A160" s="16"/>
-      <c r="B160" s="14"/>
-      <c r="C160" s="19" t="s">
+    <row r="163" spans="1:3" ht="203" x14ac:dyDescent="0.35">
+      <c r="A163" s="14"/>
+      <c r="B163" s="16"/>
+      <c r="C163" s="12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A161" s="16"/>
-      <c r="B161" s="14"/>
-      <c r="C161" s="19" t="s">
+    <row r="164" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="A164" s="14"/>
+      <c r="B164" s="16"/>
+      <c r="C164" s="12" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A162" s="16"/>
-      <c r="B162" s="14"/>
-      <c r="C162" s="19" t="s">
+    <row r="165" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A165" s="14"/>
+      <c r="B165" s="16" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" ht="203" x14ac:dyDescent="0.35">
-      <c r="A163" s="16"/>
-      <c r="B163" s="14"/>
-      <c r="C163" s="19" t="s">
+      <c r="C165" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A164" s="16"/>
-      <c r="B164" s="14"/>
-      <c r="C164" s="19" t="s">
+    <row r="166" spans="1:3" ht="145" x14ac:dyDescent="0.35">
+      <c r="A166" s="14"/>
+      <c r="B166" s="16"/>
+      <c r="C166" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A165" s="16"/>
-      <c r="B165" s="14" t="s">
+    <row r="167" spans="1:3" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A167" s="14"/>
+      <c r="B167" s="16"/>
+      <c r="C167" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="C165" s="19" t="s">
+    </row>
+    <row r="168" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="A168" s="14"/>
+      <c r="B168" s="16"/>
+      <c r="C168" s="12" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="145" x14ac:dyDescent="0.35">
-      <c r="A166" s="16"/>
-      <c r="B166" s="14"/>
-      <c r="C166" s="19" t="s">
+    <row r="169" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A169" s="14"/>
+      <c r="B169" s="16"/>
+      <c r="C169" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A167" s="16"/>
-      <c r="B167" s="14"/>
-      <c r="C167" s="19" t="s">
+    <row r="170" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A170" s="14"/>
+      <c r="B170" s="16" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A168" s="16"/>
-      <c r="B168" s="14"/>
-      <c r="C168" s="19" t="s">
+      <c r="C170" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A169" s="16"/>
-      <c r="B169" s="14"/>
-      <c r="C169" s="19" t="s">
+    <row r="171" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A171" s="14"/>
+      <c r="B171" s="16"/>
+      <c r="C171" s="12" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A170" s="16"/>
-      <c r="B170" s="14" t="s">
+    <row r="172" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A172" s="14"/>
+      <c r="B172" s="16"/>
+      <c r="C172" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="C170" s="19" t="s">
+    </row>
+    <row r="173" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A173" s="14"/>
+      <c r="B173" s="17" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A171" s="16"/>
-      <c r="B171" s="14"/>
-      <c r="C171" s="19" t="s">
+      <c r="C173" s="12" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A172" s="16"/>
-      <c r="B172" s="14"/>
-      <c r="C172" s="19" t="s">
+    <row r="174" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A174" s="14"/>
+      <c r="B174" s="17"/>
+      <c r="C174" s="12" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A173" s="16"/>
-      <c r="B173" s="18" t="s">
+    <row r="175" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A175" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="C173" s="19" t="s">
+      <c r="B175" s="16" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A174" s="16"/>
-      <c r="B174" s="18"/>
-      <c r="C174" s="19" t="s">
+      <c r="C175" s="12" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A175" s="16" t="s">
+    <row r="176" spans="1:3" ht="174" x14ac:dyDescent="0.35">
+      <c r="A176" s="14"/>
+      <c r="B176" s="16"/>
+      <c r="C176" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="B175" s="14" t="s">
+    </row>
+    <row r="177" spans="1:3" ht="232" x14ac:dyDescent="0.35">
+      <c r="A177" s="14"/>
+      <c r="B177" s="16"/>
+      <c r="C177" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C175" s="19" t="s">
+    </row>
+    <row r="178" spans="1:3" ht="261" x14ac:dyDescent="0.35">
+      <c r="A178" s="14"/>
+      <c r="B178" s="16"/>
+      <c r="C178" s="12" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="174" x14ac:dyDescent="0.35">
-      <c r="A176" s="16"/>
-      <c r="B176" s="14"/>
-      <c r="C176" s="19" t="s">
+    <row r="179" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A179" s="14"/>
+      <c r="B179" s="16"/>
+      <c r="C179" s="12" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="232" x14ac:dyDescent="0.35">
-      <c r="A177" s="16"/>
-      <c r="B177" s="14"/>
-      <c r="C177" s="19" t="s">
+    <row r="180" spans="1:3" ht="261" x14ac:dyDescent="0.35">
+      <c r="A180" s="14"/>
+      <c r="B180" s="16"/>
+      <c r="C180" s="12" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="261" x14ac:dyDescent="0.35">
-      <c r="A178" s="16"/>
-      <c r="B178" s="14"/>
-      <c r="C178" s="19" t="s">
+    <row r="181" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A181" s="14"/>
+      <c r="B181" s="16" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A179" s="16"/>
-      <c r="B179" s="14"/>
-      <c r="C179" s="19" t="s">
+      <c r="C181" s="12" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="261" x14ac:dyDescent="0.35">
-      <c r="A180" s="16"/>
-      <c r="B180" s="14"/>
-      <c r="C180" s="19" t="s">
+    <row r="182" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A182" s="14"/>
+      <c r="B182" s="16"/>
+      <c r="C182" s="12" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A181" s="16"/>
-      <c r="B181" s="14" t="s">
+    <row r="183" spans="1:3" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A183" s="14"/>
+      <c r="B183" s="16"/>
+      <c r="C183" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="C181" s="19" t="s">
+    </row>
+    <row r="184" spans="1:3" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A184" s="14"/>
+      <c r="B184" s="16"/>
+      <c r="C184" s="12" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A182" s="16"/>
-      <c r="B182" s="14"/>
-      <c r="C182" s="19" t="s">
+    <row r="185" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A185" s="14"/>
+      <c r="B185" s="17" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A183" s="16"/>
-      <c r="B183" s="14"/>
-      <c r="C183" s="19" t="s">
+      <c r="C185" s="12" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A184" s="16"/>
-      <c r="B184" s="14"/>
-      <c r="C184" s="19" t="s">
+    <row r="186" spans="1:3" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A186" s="15"/>
+      <c r="B186" s="18"/>
+      <c r="C186" s="13" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A185" s="16"/>
-      <c r="B185" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="C185" s="19" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="21"/>
-      <c r="B186" s="22"/>
-      <c r="C186" s="23" t="s">
-        <v>227</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A2:A32"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A33:A70"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="A71:A128"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="B89:B99"/>
+    <mergeCell ref="B100:B111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B114:B118"/>
+    <mergeCell ref="B119:B124"/>
+    <mergeCell ref="B125:B128"/>
     <mergeCell ref="A175:A186"/>
     <mergeCell ref="B175:B180"/>
     <mergeCell ref="B181:B184"/>
@@ -6979,31 +7009,6 @@
     <mergeCell ref="B165:B169"/>
     <mergeCell ref="B170:B172"/>
     <mergeCell ref="B173:B174"/>
-    <mergeCell ref="A71:A128"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="B89:B99"/>
-    <mergeCell ref="B100:B111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="B119:B124"/>
-    <mergeCell ref="B125:B128"/>
-    <mergeCell ref="A33:A70"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="A2:A32"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/uploads/NIST.xlsx
+++ b/uploads/NIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github Stuff\ControlsEngine\ControlsEngine\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BBAD12-F863-4C71-9EEF-BF187A139EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1001AC-48EC-4103-885A-5DD0F9379B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{59A8A719-C323-4B4F-B141-1065C3AB4FE4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="228">
   <si>
     <r>
       <rPr>
@@ -5068,7 +5068,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -5153,21 +5153,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -5186,7 +5171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5222,38 +5207,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5571,8 +5538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEA5C29-45C1-4F57-AAA6-8442CA90C5F0}">
   <dimension ref="A1:C186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A32"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185:B186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5593,432 +5560,638 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="232" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="20"/>
-      <c r="B3" s="22"/>
+    <row r="3" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>1</v>
+      </c>
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="20"/>
-      <c r="B4" s="22"/>
+    <row r="4" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>1</v>
+      </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="348" x14ac:dyDescent="0.35">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
+    <row r="5" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>1</v>
+      </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
-      <c r="B6" s="22"/>
+    <row r="6" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>1</v>
+      </c>
       <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="20"/>
-      <c r="B7" s="23" t="s">
+    <row r="7" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="20"/>
-      <c r="B8" s="23"/>
+    <row r="8" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
-      <c r="B9" s="23"/>
+    <row r="9" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
-      <c r="B10" s="23"/>
+    <row r="10" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="319" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
-      <c r="B11" s="23"/>
+    <row r="11" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
-      <c r="B12" s="23"/>
+    <row r="12" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
-      <c r="B13" s="23"/>
+    <row r="13" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="C13" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="377" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
-      <c r="B14" s="23" t="s">
+    <row r="14" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="406" x14ac:dyDescent="0.35">
-      <c r="A15" s="20"/>
-      <c r="B15" s="23"/>
+    <row r="15" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="C15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="362.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="20"/>
-      <c r="B16" s="23"/>
+    <row r="16" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
-      <c r="B17" s="23"/>
+    <row r="17" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="20"/>
-      <c r="B18" s="23"/>
+    <row r="18" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="C18" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="290" x14ac:dyDescent="0.35">
-      <c r="A19" s="20"/>
-      <c r="B19" s="23"/>
+    <row r="19" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="C19" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="20"/>
-      <c r="B20" s="23"/>
+    <row r="20" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="C20" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="20"/>
-      <c r="B21" s="23"/>
+    <row r="21" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="C21" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="20"/>
-      <c r="B22" s="23"/>
+    <row r="22" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="C22" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="333.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="20"/>
-      <c r="B23" s="23"/>
+    <row r="23" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="C23" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="348" x14ac:dyDescent="0.35">
-      <c r="A24" s="20"/>
-      <c r="B24" s="16" t="s">
+    <row r="24" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="377" x14ac:dyDescent="0.35">
-      <c r="A25" s="20"/>
-      <c r="B25" s="16"/>
+    <row r="25" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A25" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="261" x14ac:dyDescent="0.35">
-      <c r="A26" s="20"/>
-      <c r="B26" s="16"/>
+    <row r="26" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A26" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="C26" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="20"/>
-      <c r="B27" s="16"/>
+    <row r="27" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="C27" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="20"/>
-      <c r="B28" s="16" t="s">
+    <row r="28" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="20"/>
-      <c r="B29" s="16"/>
+    <row r="29" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="C29" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="232" x14ac:dyDescent="0.35">
-      <c r="A30" s="20"/>
-      <c r="B30" s="16" t="s">
+    <row r="30" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="20"/>
-      <c r="B31" s="16"/>
+    <row r="31" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="C31" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="20"/>
-      <c r="B32" s="16"/>
+    <row r="32" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="C32" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="174" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="203" x14ac:dyDescent="0.35">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
+    <row r="34" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="C34" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="362.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="14"/>
-      <c r="B35" s="16"/>
+    <row r="35" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="C35" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="14"/>
-      <c r="B36" s="16"/>
+    <row r="36" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="C36" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="14"/>
-      <c r="B37" s="16"/>
+    <row r="37" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="C37" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="14"/>
-      <c r="B38" s="16"/>
+    <row r="38" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="C38" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="203" x14ac:dyDescent="0.35">
-      <c r="A39" s="14"/>
-      <c r="B39" s="16"/>
+    <row r="39" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="C39" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="290" x14ac:dyDescent="0.35">
-      <c r="A40" s="14"/>
-      <c r="B40" s="16"/>
+    <row r="40" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="C40" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="14"/>
-      <c r="B42" s="16"/>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="C42" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="14"/>
-      <c r="B43" s="16"/>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="C43" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="14"/>
-      <c r="B44" s="16"/>
+      <c r="A44" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="C44" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="14"/>
-      <c r="B45" s="16"/>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="C45" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A46" s="14"/>
-      <c r="B46" s="17" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A47" s="14"/>
-      <c r="B47" s="17"/>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="C47" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A48" s="14"/>
-      <c r="B48" s="17"/>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="C48" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A49" s="14"/>
-      <c r="B49" s="17"/>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="C49" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="14"/>
-      <c r="B50" s="16" t="s">
+    <row r="50" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A50" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="14"/>
-      <c r="B51" s="16"/>
+    <row r="51" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A51" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="C51" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="14"/>
-      <c r="B52" s="16"/>
+    <row r="52" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="C52" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="203" x14ac:dyDescent="0.35">
-      <c r="A53" s="14"/>
-      <c r="B53" s="16"/>
+    <row r="53" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A53" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="C53" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="232" x14ac:dyDescent="0.35">
-      <c r="A54" s="14"/>
-      <c r="B54" s="16"/>
+    <row r="54" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A54" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="C54" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="14"/>
-      <c r="B55" s="16"/>
+    <row r="55" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="C55" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="232" x14ac:dyDescent="0.35">
-      <c r="A56" s="14"/>
-      <c r="B56" s="16"/>
+    <row r="56" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A56" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="C56" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="14"/>
-      <c r="B57" s="16"/>
+    <row r="57" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="C57" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="261" x14ac:dyDescent="0.35">
-      <c r="A58" s="14"/>
-      <c r="B58" s="16"/>
+    <row r="58" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A58" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="C58" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A59" s="14"/>
-      <c r="B59" s="16" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -6026,675 +6199,1007 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="14"/>
-      <c r="B60" s="16"/>
+      <c r="A60" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="C60" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="14"/>
-      <c r="B61" s="16"/>
+      <c r="A61" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="C61" s="10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="14"/>
-      <c r="B62" s="16" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A63" s="14"/>
-      <c r="B63" s="16"/>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="C63" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="14"/>
-      <c r="B64" s="16"/>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="C64" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="14"/>
-      <c r="B65" s="16"/>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="C65" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A66" s="14"/>
-      <c r="B66" s="16"/>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="C66" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="145" x14ac:dyDescent="0.35">
-      <c r="A67" s="14"/>
-      <c r="B67" s="16" t="s">
+    <row r="67" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="377" x14ac:dyDescent="0.35">
-      <c r="A68" s="14"/>
-      <c r="B68" s="16"/>
+    <row r="68" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="C68" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="391.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="14"/>
-      <c r="B69" s="16"/>
+    <row r="69" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="C69" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="232" x14ac:dyDescent="0.35">
-      <c r="A70" s="14"/>
-      <c r="B70" s="16"/>
+    <row r="70" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="C70" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="9" t="s">
         <v>85</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="14"/>
-      <c r="B72" s="16"/>
+    <row r="72" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A72" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="C72" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="14"/>
-      <c r="B73" s="16"/>
+    <row r="73" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A73" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="C73" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="145" x14ac:dyDescent="0.35">
-      <c r="A74" s="14"/>
-      <c r="B74" s="16"/>
+    <row r="74" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A74" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="C74" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="14"/>
-      <c r="B75" s="16"/>
+    <row r="75" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A75" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="C75" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="14"/>
-      <c r="B76" s="16"/>
+    <row r="76" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A76" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>85</v>
+      </c>
       <c r="C76" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="14"/>
-      <c r="B77" s="16" t="s">
+    <row r="77" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A78" s="14"/>
-      <c r="B78" s="16"/>
+    <row r="78" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A78" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="C78" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A79" s="14"/>
-      <c r="B79" s="16"/>
+    <row r="79" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A79" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="C79" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A80" s="14"/>
-      <c r="B80" s="16"/>
+    <row r="80" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A80" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="C80" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A81" s="14"/>
-      <c r="B81" s="16"/>
+    <row r="81" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A81" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="C81" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A82" s="14"/>
-      <c r="B82" s="16"/>
+    <row r="82" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A82" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="C82" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A83" s="14"/>
-      <c r="B83" s="16"/>
+    <row r="83" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A83" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="C83" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="362.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="14"/>
-      <c r="B84" s="16" t="s">
+    <row r="84" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>100</v>
       </c>
       <c r="C84" s="12" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="14"/>
-      <c r="B85" s="16"/>
+    <row r="85" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="C85" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="14"/>
-      <c r="B86" s="16"/>
+    <row r="86" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="C86" s="12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A87" s="14"/>
-      <c r="B87" s="16"/>
+    <row r="87" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="C87" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A88" s="14"/>
-      <c r="B88" s="16"/>
+    <row r="88" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="C88" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="14"/>
-      <c r="B89" s="16" t="s">
+    <row r="89" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B89" s="9" t="s">
         <v>106</v>
       </c>
       <c r="C89" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="232" x14ac:dyDescent="0.35">
-      <c r="A90" s="14"/>
-      <c r="B90" s="16"/>
+    <row r="90" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="C90" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A91" s="14"/>
-      <c r="B91" s="16"/>
+    <row r="91" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="C91" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A92" s="14"/>
-      <c r="B92" s="16"/>
+    <row r="92" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="C92" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A93" s="14"/>
-      <c r="B93" s="16"/>
+    <row r="93" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="C93" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A94" s="14"/>
-      <c r="B94" s="16"/>
+    <row r="94" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="C94" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A95" s="14"/>
-      <c r="B95" s="16"/>
+    <row r="95" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="C95" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A96" s="14"/>
-      <c r="B96" s="16"/>
+    <row r="96" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="C96" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="174" x14ac:dyDescent="0.35">
-      <c r="A97" s="14"/>
-      <c r="B97" s="16"/>
+    <row r="97" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="C97" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A98" s="14"/>
-      <c r="B98" s="16"/>
+    <row r="98" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="C98" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A99" s="14"/>
-      <c r="B99" s="16"/>
+    <row r="99" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="C99" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="14"/>
-      <c r="B100" s="16" t="s">
+    <row r="100" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C100" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="14"/>
-      <c r="B101" s="16"/>
+    <row r="101" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A101" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="C101" s="12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A102" s="14"/>
-      <c r="B102" s="16"/>
+    <row r="102" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A102" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="C102" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="14"/>
-      <c r="B103" s="16"/>
+    <row r="103" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A103" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="C103" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="14"/>
-      <c r="B104" s="16"/>
+    <row r="104" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A104" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="C104" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A105" s="14"/>
-      <c r="B105" s="16"/>
+    <row r="105" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A105" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="C105" s="12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="14"/>
-      <c r="B106" s="16"/>
+    <row r="106" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A106" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="C106" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="14"/>
-      <c r="B107" s="16"/>
+    <row r="107" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A107" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="C107" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A108" s="14"/>
-      <c r="B108" s="16"/>
+    <row r="108" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A108" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="C108" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A109" s="14"/>
-      <c r="B109" s="16"/>
+    <row r="109" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A109" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="C109" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A110" s="14"/>
-      <c r="B110" s="16"/>
+    <row r="110" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A110" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="C110" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A111" s="14"/>
-      <c r="B111" s="16"/>
+    <row r="111" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A111" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>118</v>
+      </c>
       <c r="C111" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A112" s="14"/>
-      <c r="B112" s="17" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B112" s="15" t="s">
         <v>131</v>
       </c>
       <c r="C112" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A113" s="14"/>
-      <c r="B113" s="17"/>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>131</v>
+      </c>
       <c r="C113" s="12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A114" s="14"/>
-      <c r="B114" s="16" t="s">
+    <row r="114" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B114" s="9" t="s">
         <v>134</v>
       </c>
       <c r="C114" s="12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A115" s="14"/>
-      <c r="B115" s="16"/>
+    <row r="115" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A115" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="C115" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A116" s="14"/>
-      <c r="B116" s="16"/>
+    <row r="116" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A116" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="C116" s="12" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="14"/>
-      <c r="B117" s="16"/>
+    <row r="117" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A117" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="C117" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A118" s="14"/>
-      <c r="B118" s="16"/>
+    <row r="118" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A118" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="C118" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="14"/>
-      <c r="B119" s="16" t="s">
+    <row r="119" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B119" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C119" s="12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A120" s="14"/>
-      <c r="B120" s="16"/>
+    <row r="120" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A120" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="C120" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="203" x14ac:dyDescent="0.35">
-      <c r="A121" s="14"/>
-      <c r="B121" s="16"/>
+    <row r="121" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A121" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="C121" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="14"/>
-      <c r="B122" s="16"/>
+    <row r="122" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A122" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="C122" s="12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A123" s="14"/>
-      <c r="B123" s="16"/>
+    <row r="123" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A123" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="C123" s="12" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="290" x14ac:dyDescent="0.35">
-      <c r="A124" s="14"/>
-      <c r="B124" s="16"/>
+    <row r="124" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A124" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>140</v>
+      </c>
       <c r="C124" s="12" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="290" x14ac:dyDescent="0.35">
-      <c r="A125" s="14"/>
-      <c r="B125" s="16" t="s">
+    <row r="125" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B125" s="9" t="s">
         <v>147</v>
       </c>
       <c r="C125" s="12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="203" x14ac:dyDescent="0.35">
-      <c r="A126" s="14"/>
-      <c r="B126" s="16"/>
+    <row r="126" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A126" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>147</v>
+      </c>
       <c r="C126" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="232" x14ac:dyDescent="0.35">
-      <c r="A127" s="14"/>
-      <c r="B127" s="16"/>
+    <row r="127" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A127" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>147</v>
+      </c>
       <c r="C127" s="12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="14"/>
-      <c r="B128" s="16"/>
+    <row r="128" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A128" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>147</v>
+      </c>
       <c r="C128" s="12" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B129" s="16" t="s">
+      <c r="B129" s="9" t="s">
         <v>153</v>
       </c>
       <c r="C129" s="12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="145" x14ac:dyDescent="0.35">
-      <c r="A130" s="14"/>
-      <c r="B130" s="16"/>
+    <row r="130" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A130" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>153</v>
+      </c>
       <c r="C130" s="12" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="261" x14ac:dyDescent="0.35">
-      <c r="A131" s="14"/>
-      <c r="B131" s="16"/>
+    <row r="131" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A131" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>153</v>
+      </c>
       <c r="C131" s="12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A132" s="14"/>
-      <c r="B132" s="16"/>
+    <row r="132" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A132" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>153</v>
+      </c>
       <c r="C132" s="12" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A133" s="14"/>
-      <c r="B133" s="16"/>
+    <row r="133" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A133" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>153</v>
+      </c>
       <c r="C133" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A134" s="14"/>
-      <c r="B134" s="16"/>
+    <row r="134" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A134" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>153</v>
+      </c>
       <c r="C134" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="174" x14ac:dyDescent="0.35">
-      <c r="A135" s="14"/>
-      <c r="B135" s="16"/>
+    <row r="135" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A135" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>153</v>
+      </c>
       <c r="C135" s="12" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A136" s="14"/>
-      <c r="B136" s="16"/>
+    <row r="136" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A136" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>153</v>
+      </c>
       <c r="C136" s="12" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="377" x14ac:dyDescent="0.35">
-      <c r="A137" s="14"/>
-      <c r="B137" s="16"/>
+    <row r="137" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A137" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>153</v>
+      </c>
       <c r="C137" s="12" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A138" s="14"/>
-      <c r="B138" s="16" t="s">
+    <row r="138" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B138" s="9" t="s">
         <v>163</v>
       </c>
       <c r="C138" s="12" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A139" s="14"/>
-      <c r="B139" s="16"/>
+    <row r="139" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A139" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>163</v>
+      </c>
       <c r="C139" s="12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A140" s="14"/>
-      <c r="B140" s="16"/>
+    <row r="140" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A140" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>163</v>
+      </c>
       <c r="C140" s="12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A141" s="14"/>
-      <c r="B141" s="16"/>
+    <row r="141" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A141" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>163</v>
+      </c>
       <c r="C141" s="12" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A142" s="14"/>
-      <c r="B142" s="16"/>
+    <row r="142" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A142" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>163</v>
+      </c>
       <c r="C142" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="203" x14ac:dyDescent="0.35">
-      <c r="A143" s="14"/>
-      <c r="B143" s="16"/>
+    <row r="143" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A143" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>163</v>
+      </c>
       <c r="C143" s="12" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="203" x14ac:dyDescent="0.35">
-      <c r="A144" s="14"/>
-      <c r="B144" s="16"/>
+    <row r="144" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A144" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>163</v>
+      </c>
       <c r="C144" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A145" s="14"/>
-      <c r="B145" s="16"/>
+    <row r="145" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A145" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>163</v>
+      </c>
       <c r="C145" s="12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A146" s="14"/>
-      <c r="B146" s="16" t="s">
+    <row r="146" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B146" s="9" t="s">
         <v>172</v>
       </c>
       <c r="C146" s="12" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A147" s="14"/>
-      <c r="B147" s="16"/>
+    <row r="147" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A147" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>172</v>
+      </c>
       <c r="C147" s="12" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A148" s="14"/>
-      <c r="B148" s="16"/>
+    <row r="148" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A148" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>172</v>
+      </c>
       <c r="C148" s="12" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A149" s="14"/>
-      <c r="B149" s="16"/>
+    <row r="149" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A149" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>172</v>
+      </c>
       <c r="C149" s="12" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A150" s="14"/>
-      <c r="B150" s="16"/>
+    <row r="150" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A150" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>172</v>
+      </c>
       <c r="C150" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="14" t="s">
         <v>178</v>
       </c>
@@ -6705,311 +7210,392 @@
         <v>180</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="290" x14ac:dyDescent="0.35">
-      <c r="A152" s="14"/>
-      <c r="B152" s="16" t="s">
+    <row r="152" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A152" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B152" s="9" t="s">
         <v>181</v>
       </c>
       <c r="C152" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="174" x14ac:dyDescent="0.35">
-      <c r="A153" s="14"/>
-      <c r="B153" s="16"/>
+    <row r="153" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A153" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>181</v>
+      </c>
       <c r="C153" s="12" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="174" x14ac:dyDescent="0.35">
-      <c r="A154" s="14"/>
-      <c r="B154" s="16"/>
+    <row r="154" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A154" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>181</v>
+      </c>
       <c r="C154" s="12" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A155" s="14"/>
-      <c r="B155" s="16"/>
+    <row r="155" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A155" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>181</v>
+      </c>
       <c r="C155" s="12" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A156" s="14"/>
-      <c r="B156" s="16"/>
+    <row r="156" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A156" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>181</v>
+      </c>
       <c r="C156" s="12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A157" s="14"/>
-      <c r="B157" s="16" t="s">
+    <row r="157" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B157" s="9" t="s">
         <v>187</v>
       </c>
       <c r="C157" s="12" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="145" x14ac:dyDescent="0.35">
-      <c r="A158" s="14"/>
-      <c r="B158" s="16"/>
+    <row r="158" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A158" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="C158" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="261" x14ac:dyDescent="0.35">
-      <c r="A159" s="14"/>
-      <c r="B159" s="16"/>
+    <row r="159" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A159" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="C159" s="12" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A160" s="14"/>
-      <c r="B160" s="16"/>
+    <row r="160" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A160" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="C160" s="12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A161" s="14"/>
-      <c r="B161" s="16"/>
+    <row r="161" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A161" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="C161" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A162" s="14"/>
-      <c r="B162" s="16"/>
+    <row r="162" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A162" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="C162" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="203" x14ac:dyDescent="0.35">
-      <c r="A163" s="14"/>
-      <c r="B163" s="16"/>
+    <row r="163" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A163" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="C163" s="12" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A164" s="14"/>
-      <c r="B164" s="16"/>
+    <row r="164" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A164" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="C164" s="12" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A165" s="14"/>
-      <c r="B165" s="16" t="s">
+    <row r="165" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B165" s="9" t="s">
         <v>196</v>
       </c>
       <c r="C165" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="145" x14ac:dyDescent="0.35">
-      <c r="A166" s="14"/>
-      <c r="B166" s="16"/>
+    <row r="166" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A166" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="C166" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="246.5" x14ac:dyDescent="0.35">
-      <c r="A167" s="14"/>
-      <c r="B167" s="16"/>
+    <row r="167" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A167" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="C167" s="12" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A168" s="14"/>
-      <c r="B168" s="16"/>
+    <row r="168" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A168" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="C168" s="12" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A169" s="14"/>
-      <c r="B169" s="16"/>
+    <row r="169" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A169" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>196</v>
+      </c>
       <c r="C169" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A170" s="14"/>
-      <c r="B170" s="16" t="s">
+    <row r="170" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B170" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C170" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A171" s="14"/>
-      <c r="B171" s="16"/>
+    <row r="171" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A171" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="C171" s="12" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A172" s="14"/>
-      <c r="B172" s="16"/>
+    <row r="172" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A172" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>202</v>
+      </c>
       <c r="C172" s="12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A173" s="14"/>
-      <c r="B173" s="17" t="s">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B173" s="15" t="s">
         <v>206</v>
       </c>
       <c r="C173" s="12" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A174" s="14"/>
-      <c r="B174" s="17"/>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174" s="15" t="s">
+        <v>206</v>
+      </c>
       <c r="C174" s="12" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="B175" s="16" t="s">
+      <c r="B175" s="9" t="s">
         <v>210</v>
       </c>
       <c r="C175" s="12" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="174" x14ac:dyDescent="0.35">
-      <c r="A176" s="14"/>
-      <c r="B176" s="16"/>
+    <row r="176" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A176" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>210</v>
+      </c>
       <c r="C176" s="12" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="232" x14ac:dyDescent="0.35">
-      <c r="A177" s="14"/>
-      <c r="B177" s="16"/>
+    <row r="177" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A177" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>210</v>
+      </c>
       <c r="C177" s="12" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="261" x14ac:dyDescent="0.35">
-      <c r="A178" s="14"/>
-      <c r="B178" s="16"/>
+    <row r="178" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A178" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>210</v>
+      </c>
       <c r="C178" s="12" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A179" s="14"/>
-      <c r="B179" s="16"/>
+    <row r="179" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A179" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>210</v>
+      </c>
       <c r="C179" s="12" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="261" x14ac:dyDescent="0.35">
-      <c r="A180" s="14"/>
-      <c r="B180" s="16"/>
+    <row r="180" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A180" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>210</v>
+      </c>
       <c r="C180" s="12" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A181" s="14"/>
-      <c r="B181" s="16" t="s">
+    <row r="181" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B181" s="9" t="s">
         <v>217</v>
       </c>
       <c r="C181" s="12" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A182" s="14"/>
-      <c r="B182" s="16"/>
+    <row r="182" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A182" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>217</v>
+      </c>
       <c r="C182" s="12" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A183" s="14"/>
-      <c r="B183" s="16"/>
+    <row r="183" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A183" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>217</v>
+      </c>
       <c r="C183" s="12" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A184" s="14"/>
-      <c r="B184" s="16"/>
+    <row r="184" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A184" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>217</v>
+      </c>
       <c r="C184" s="12" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A185" s="14"/>
-      <c r="B185" s="17" t="s">
+    <row r="185" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A185" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B185" s="15" t="s">
         <v>222</v>
       </c>
       <c r="C185" s="12" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="15"/>
-      <c r="B186" s="18"/>
+    <row r="186" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A186" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B186" s="15" t="s">
+        <v>222</v>
+      </c>
       <c r="C186" s="13" t="s">
         <v>224</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="A2:A32"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A33:A70"/>
-    <mergeCell ref="B33:B40"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="A71:A128"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="B77:B83"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="B89:B99"/>
-    <mergeCell ref="B100:B111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B114:B118"/>
-    <mergeCell ref="B119:B124"/>
-    <mergeCell ref="B125:B128"/>
-    <mergeCell ref="A175:A186"/>
-    <mergeCell ref="B175:B180"/>
-    <mergeCell ref="B181:B184"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="A129:A150"/>
-    <mergeCell ref="B129:B137"/>
-    <mergeCell ref="B138:B145"/>
-    <mergeCell ref="B146:B150"/>
-    <mergeCell ref="A151:A174"/>
-    <mergeCell ref="B152:B156"/>
-    <mergeCell ref="B157:B164"/>
-    <mergeCell ref="B165:B169"/>
-    <mergeCell ref="B170:B172"/>
-    <mergeCell ref="B173:B174"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>